--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3863862.110548839</v>
+        <v>3863509.184463364</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>238992.8148320314</v>
+        <v>238992.8148320317</v>
       </c>
     </row>
     <row r="8">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>41.91176353195288</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>170.7611426372575</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>44.01385415293685</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -792,7 +792,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -801,10 +801,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>148.2898866490548</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.518793999885657</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>48.07408042669798</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>84.45015493637305</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>377.1608800863959</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -990,10 +990,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>82.80698291598728</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1035,13 +1035,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>25.32205092963874</v>
       </c>
     </row>
     <row r="7">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>30.84765070733271</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1148,7 +1148,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>9.154584473500929</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>141.0598120912427</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1224,10 +1224,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>78.11832527047109</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1266,13 +1266,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>127.2349021084307</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>58.0633291268696</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.54853274729805</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>48.18797152005669</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
         <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.49987999562276</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T11" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
         <v>220.1793158548093</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E13" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F13" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1591,7 +1591,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
         <v>106.3846417114369</v>
@@ -1607,7 +1607,7 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>255.6655596168399</v>
@@ -1616,16 +1616,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>20.67169608359995</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508323</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774086</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
@@ -1667,13 +1667,13 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327663</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655129</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617117</v>
+        <v>72.81556728089681</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808562</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627193</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1825,13 +1825,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W16" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>212.0807739312646</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.4773717274634</v>
+        <v>223.4773717274635</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>122.8847593541863</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
@@ -2132,7 +2132,7 @@
         <v>19.22762047349264</v>
       </c>
       <c r="T20" t="n">
-        <v>55.98629166384218</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U20" t="n">
         <v>86.20741778068896</v>
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>53.13297117133636</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>263.3161537670948</v>
       </c>
       <c r="C26" t="n">
-        <v>251.3274707247765</v>
+        <v>251.3274707247766</v>
       </c>
       <c r="D26" t="n">
         <v>242.3087747693045</v>
@@ -2573,7 +2573,7 @@
         <v>202.7061113029197</v>
       </c>
       <c r="I26" t="n">
-        <v>44.30207644754779</v>
+        <v>44.30207644754782</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.56973526020542</v>
+        <v>58.56973526020545</v>
       </c>
       <c r="T26" t="n">
-        <v>95.32840645055478</v>
+        <v>95.32840645055481</v>
       </c>
       <c r="U26" t="n">
-        <v>125.5495325674017</v>
+        <v>125.5495325674018</v>
       </c>
       <c r="V26" t="n">
         <v>206.8225310072739</v>
@@ -2618,7 +2618,7 @@
         <v>232.1226304852308</v>
       </c>
       <c r="X26" t="n">
-        <v>251.4228887179774</v>
+        <v>251.4228887179775</v>
       </c>
       <c r="Y26" t="n">
         <v>262.8194865141762</v>
@@ -2646,13 +2646,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>112.8757236914449</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133627</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.93286464179187</v>
+        <v>54.93286464179189</v>
       </c>
       <c r="C28" t="n">
-        <v>41.13285948719235</v>
+        <v>41.13285948719238</v>
       </c>
       <c r="D28" t="n">
-        <v>24.75422388477074</v>
+        <v>24.75422388477077</v>
       </c>
       <c r="E28" t="n">
-        <v>23.70197374055019</v>
+        <v>23.70197374055022</v>
       </c>
       <c r="F28" t="n">
-        <v>24.1688980687365</v>
+        <v>24.16889806873652</v>
       </c>
       <c r="G28" t="n">
-        <v>40.44360079008433</v>
+        <v>40.44360079008436</v>
       </c>
       <c r="H28" t="n">
-        <v>30.99196841277475</v>
+        <v>30.99196841277478</v>
       </c>
       <c r="I28" t="n">
-        <v>15.9740635976041</v>
+        <v>15.97406359760413</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.23961321602141</v>
+        <v>21.23961321602144</v>
       </c>
       <c r="S28" t="n">
-        <v>84.78571461460515</v>
+        <v>84.78571461460518</v>
       </c>
       <c r="T28" t="n">
         <v>104.0602132967338</v>
@@ -2776,10 +2776,10 @@
         <v>156.5078871120307</v>
       </c>
       <c r="X28" t="n">
-        <v>102.1529891078338</v>
+        <v>102.1529891078339</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.02785686390152</v>
+        <v>93.02785686390155</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>263.3161537670948</v>
+        <v>263.3161537670949</v>
       </c>
       <c r="C29" t="n">
         <v>251.3274707247766</v>
       </c>
       <c r="D29" t="n">
-        <v>242.3087747693045</v>
+        <v>242.3087747693046</v>
       </c>
       <c r="E29" t="n">
         <v>264.0509123392101</v>
       </c>
       <c r="F29" t="n">
-        <v>283.2227284271872</v>
+        <v>283.2227284271873</v>
       </c>
       <c r="G29" t="n">
         <v>285.1559963246098</v>
@@ -2810,7 +2810,7 @@
         <v>202.7061113029197</v>
       </c>
       <c r="I29" t="n">
-        <v>44.30207644754783</v>
+        <v>44.30207644754786</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.56973526020546</v>
+        <v>58.56973526020549</v>
       </c>
       <c r="T29" t="n">
-        <v>95.32840645055482</v>
+        <v>95.32840645055485</v>
       </c>
       <c r="U29" t="n">
         <v>125.5495325674018</v>
       </c>
       <c r="V29" t="n">
-        <v>206.8225310072739</v>
+        <v>206.822531007274</v>
       </c>
       <c r="W29" t="n">
-        <v>232.1226304852308</v>
+        <v>232.1226304852309</v>
       </c>
       <c r="X29" t="n">
         <v>251.4228887179775</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.8194865141762</v>
+        <v>262.8194865141763</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326558</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13297117133624</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.93286464179191</v>
+        <v>54.93286464179194</v>
       </c>
       <c r="C31" t="n">
-        <v>41.13285948719239</v>
+        <v>41.13285948719242</v>
       </c>
       <c r="D31" t="n">
-        <v>24.75422388477078</v>
+        <v>24.75422388477081</v>
       </c>
       <c r="E31" t="n">
-        <v>23.70197374055023</v>
+        <v>23.70197374055026</v>
       </c>
       <c r="F31" t="n">
-        <v>24.16889806873654</v>
+        <v>24.16889806873657</v>
       </c>
       <c r="G31" t="n">
-        <v>40.44360079008437</v>
+        <v>40.4436007900844</v>
       </c>
       <c r="H31" t="n">
-        <v>30.9919684127748</v>
+        <v>30.99196841277482</v>
       </c>
       <c r="I31" t="n">
-        <v>15.97406359760414</v>
+        <v>15.97406359760417</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.23961321602145</v>
+        <v>21.23961321602148</v>
       </c>
       <c r="S31" t="n">
-        <v>84.7857146146052</v>
+        <v>84.78571461460523</v>
       </c>
       <c r="T31" t="n">
-        <v>104.0602132967338</v>
+        <v>104.0602132967339</v>
       </c>
       <c r="U31" t="n">
         <v>157.531386760047</v>
@@ -3010,13 +3010,13 @@
         <v>131.3410010414175</v>
       </c>
       <c r="W31" t="n">
-        <v>156.5078871120307</v>
+        <v>156.5078871120308</v>
       </c>
       <c r="X31" t="n">
         <v>102.1529891078339</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.02785686390156</v>
+        <v>93.02785686390159</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.0186241529801</v>
+        <v>253.01862415298</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0299411106619</v>
+        <v>241.0299411106617</v>
       </c>
       <c r="D32" t="n">
-        <v>232.0112451551898</v>
+        <v>232.0112451551897</v>
       </c>
       <c r="E32" t="n">
-        <v>253.7533827250954</v>
+        <v>253.7533827250952</v>
       </c>
       <c r="F32" t="n">
-        <v>272.9251988130725</v>
+        <v>272.9251988130724</v>
       </c>
       <c r="G32" t="n">
-        <v>274.8584667104951</v>
+        <v>274.8584667104949</v>
       </c>
       <c r="H32" t="n">
-        <v>192.408581688805</v>
+        <v>192.4085816888048</v>
       </c>
       <c r="I32" t="n">
-        <v>34.00454683343312</v>
+        <v>34.00454683343298</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.27220564609075</v>
+        <v>48.27220564609061</v>
       </c>
       <c r="T32" t="n">
-        <v>85.03087683644011</v>
+        <v>85.03087683643997</v>
       </c>
       <c r="U32" t="n">
-        <v>115.2520029532871</v>
+        <v>115.2520029532869</v>
       </c>
       <c r="V32" t="n">
-        <v>196.5250013931592</v>
+        <v>196.5250013931591</v>
       </c>
       <c r="W32" t="n">
-        <v>221.8251008711161</v>
+        <v>221.825100871116</v>
       </c>
       <c r="X32" t="n">
-        <v>241.1253591038628</v>
+        <v>241.1253591038626</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.5219569000615</v>
+        <v>252.5219569000614</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841208</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>53.13297117133605</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.6353350276772</v>
+        <v>44.63533502767706</v>
       </c>
       <c r="C34" t="n">
-        <v>30.83532987307768</v>
+        <v>30.83532987307754</v>
       </c>
       <c r="D34" t="n">
-        <v>14.45669427065607</v>
+        <v>14.45669427065593</v>
       </c>
       <c r="E34" t="n">
-        <v>13.40444412643552</v>
+        <v>13.40444412643538</v>
       </c>
       <c r="F34" t="n">
-        <v>13.87136845462183</v>
+        <v>13.87136845462169</v>
       </c>
       <c r="G34" t="n">
-        <v>30.14607117596967</v>
+        <v>30.14607117596952</v>
       </c>
       <c r="H34" t="n">
-        <v>20.69443879866009</v>
+        <v>20.69443879865995</v>
       </c>
       <c r="I34" t="n">
-        <v>5.676533983489435</v>
+        <v>5.676533983489293</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.94208360190675</v>
+        <v>10.9420836019066</v>
       </c>
       <c r="S34" t="n">
-        <v>74.48818500049049</v>
+        <v>74.48818500049035</v>
       </c>
       <c r="T34" t="n">
-        <v>93.76268368261913</v>
+        <v>93.76268368261898</v>
       </c>
       <c r="U34" t="n">
-        <v>147.2338571459323</v>
+        <v>147.2338571459321</v>
       </c>
       <c r="V34" t="n">
-        <v>121.0434714273028</v>
+        <v>121.0434714273026</v>
       </c>
       <c r="W34" t="n">
-        <v>146.210357497916</v>
+        <v>146.2103574979159</v>
       </c>
       <c r="X34" t="n">
-        <v>91.85545949371917</v>
+        <v>91.85545949371902</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.73032724978685</v>
+        <v>82.73032724978671</v>
       </c>
     </row>
     <row r="35">
@@ -3351,7 +3351,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581942</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>53.13297117133634</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133546</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3743,16 +3743,16 @@
         <v>243.8412350766222</v>
       </c>
       <c r="D41" t="n">
-        <v>234.8225391211502</v>
+        <v>234.8225391211501</v>
       </c>
       <c r="E41" t="n">
-        <v>256.5646766910557</v>
+        <v>256.5646766910556</v>
       </c>
       <c r="F41" t="n">
-        <v>275.7364927790329</v>
+        <v>112.3839071765054</v>
       </c>
       <c r="G41" t="n">
-        <v>93.63638173117147</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>195.2198756547653</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.08349961205104</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>87.8421708024004</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>118.0632969192474</v>
       </c>
       <c r="V41" t="n">
-        <v>199.3362953591196</v>
+        <v>199.3362953591195</v>
       </c>
       <c r="W41" t="n">
-        <v>224.6363948370765</v>
+        <v>224.6363948370764</v>
       </c>
       <c r="X41" t="n">
         <v>243.9366530698231</v>
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.44662899363752</v>
+        <v>47.44662899363749</v>
       </c>
       <c r="C43" t="n">
-        <v>33.646623839038</v>
+        <v>33.64662383903797</v>
       </c>
       <c r="D43" t="n">
-        <v>17.26798823661639</v>
+        <v>17.26798823661636</v>
       </c>
       <c r="E43" t="n">
-        <v>16.21573809239584</v>
+        <v>16.21573809239581</v>
       </c>
       <c r="F43" t="n">
-        <v>16.68266242058215</v>
+        <v>16.68266242058212</v>
       </c>
       <c r="G43" t="n">
-        <v>32.95736514192998</v>
+        <v>32.95736514192996</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5057327646204</v>
+        <v>23.50573276462038</v>
       </c>
       <c r="I43" t="n">
-        <v>8.487827949449752</v>
+        <v>8.487827949449724</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>13.75337756786706</v>
+        <v>13.75337756786703</v>
       </c>
       <c r="S43" t="n">
-        <v>77.29947896645081</v>
+        <v>77.29947896645078</v>
       </c>
       <c r="T43" t="n">
-        <v>96.57397764857944</v>
+        <v>96.57397764857942</v>
       </c>
       <c r="U43" t="n">
         <v>150.0451511118926</v>
@@ -3958,13 +3958,13 @@
         <v>123.8547653932631</v>
       </c>
       <c r="W43" t="n">
-        <v>149.0216514638764</v>
+        <v>149.0216514638763</v>
       </c>
       <c r="X43" t="n">
-        <v>94.66675345967948</v>
+        <v>94.66675345967946</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.54162121574717</v>
+        <v>85.54162121574714</v>
       </c>
     </row>
     <row r="44">
@@ -3983,16 +3983,16 @@
         <v>234.8225391211501</v>
       </c>
       <c r="E44" t="n">
-        <v>256.5646766910556</v>
+        <v>93.21209108852919</v>
       </c>
       <c r="F44" t="n">
         <v>275.7364927790328</v>
       </c>
       <c r="G44" t="n">
-        <v>277.6697606764553</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>195.2198756547652</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>51.08349961205101</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>87.84217080240037</v>
       </c>
       <c r="U44" t="n">
         <v>118.0632969192473</v>
@@ -4037,7 +4037,7 @@
         <v>199.3362953591195</v>
       </c>
       <c r="W44" t="n">
-        <v>117.7595946273116</v>
+        <v>224.6363948370764</v>
       </c>
       <c r="X44" t="n">
         <v>243.936653069823</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>172.2327615101707</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.44662899363743</v>
+        <v>47.44662899363746</v>
       </c>
       <c r="C46" t="n">
-        <v>33.64662383903791</v>
+        <v>33.64662383903794</v>
       </c>
       <c r="D46" t="n">
-        <v>17.2679882366163</v>
+        <v>17.26798823661633</v>
       </c>
       <c r="E46" t="n">
-        <v>16.21573809239575</v>
+        <v>16.21573809239578</v>
       </c>
       <c r="F46" t="n">
-        <v>16.68266242058206</v>
+        <v>16.68266242058209</v>
       </c>
       <c r="G46" t="n">
-        <v>32.9573651419299</v>
+        <v>32.95736514192993</v>
       </c>
       <c r="H46" t="n">
-        <v>23.50573276462032</v>
+        <v>23.50573276462035</v>
       </c>
       <c r="I46" t="n">
-        <v>8.487827949449667</v>
+        <v>8.487827949449695</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>13.75337756786698</v>
+        <v>13.75337756786701</v>
       </c>
       <c r="S46" t="n">
-        <v>77.29947896645072</v>
+        <v>77.29947896645075</v>
       </c>
       <c r="T46" t="n">
-        <v>96.57397764857936</v>
+        <v>96.57397764857939</v>
       </c>
       <c r="U46" t="n">
-        <v>150.0451511118925</v>
+        <v>150.0451511118926</v>
       </c>
       <c r="V46" t="n">
-        <v>123.854765393263</v>
+        <v>123.8547653932631</v>
       </c>
       <c r="W46" t="n">
         <v>149.0216514638763</v>
       </c>
       <c r="X46" t="n">
-        <v>94.6667534596794</v>
+        <v>94.66675345967943</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.54162121574709</v>
+        <v>85.54162121574711</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1769.519479976232</v>
+        <v>103.3495934863764</v>
       </c>
       <c r="C2" t="n">
-        <v>1769.519479976232</v>
+        <v>103.3495934863764</v>
       </c>
       <c r="D2" t="n">
-        <v>1769.519479976232</v>
+        <v>103.3495934863764</v>
       </c>
       <c r="E2" t="n">
-        <v>1374.733760082339</v>
+        <v>61.01447880763614</v>
       </c>
       <c r="F2" t="n">
-        <v>960.5825693925092</v>
+        <v>50.90369215821053</v>
       </c>
       <c r="G2" t="n">
-        <v>544.4785828466972</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="H2" t="n">
-        <v>211.6573084440066</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="I2" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="J2" t="n">
-        <v>38.84010965280257</v>
+        <v>110.8386539256082</v>
       </c>
       <c r="K2" t="n">
-        <v>194.9558499989548</v>
+        <v>350.979025970391</v>
       </c>
       <c r="L2" t="n">
-        <v>542.841223083901</v>
+        <v>698.8643990553372</v>
       </c>
       <c r="M2" t="n">
-        <v>936.0803893369889</v>
+        <v>936.0803893369884</v>
       </c>
       <c r="N2" t="n">
-        <v>1314.411748024705</v>
+        <v>1314.411748024704</v>
       </c>
       <c r="O2" t="n">
         <v>1619.416332497538</v>
       </c>
       <c r="P2" t="n">
-        <v>1847.573228953592</v>
+        <v>1847.573228953591</v>
       </c>
       <c r="Q2" t="n">
-        <v>1942.005482640129</v>
+        <v>1942.005482640128</v>
       </c>
       <c r="R2" t="n">
-        <v>1942.005482640129</v>
+        <v>1851.367196135981</v>
       </c>
       <c r="S2" t="n">
-        <v>1942.005482640129</v>
+        <v>1664.138220766336</v>
       </c>
       <c r="T2" t="n">
-        <v>1942.005482640129</v>
+        <v>1439.779274497347</v>
       </c>
       <c r="U2" t="n">
-        <v>1769.519479976232</v>
+        <v>1184.893938211341</v>
       </c>
       <c r="V2" t="n">
-        <v>1769.519479976232</v>
+        <v>847.9146641072821</v>
       </c>
       <c r="W2" t="n">
-        <v>1769.519479976232</v>
+        <v>485.3797339648831</v>
       </c>
       <c r="X2" t="n">
-        <v>1769.519479976232</v>
+        <v>103.3495934863764</v>
       </c>
       <c r="Y2" t="n">
-        <v>1769.519479976232</v>
+        <v>103.3495934863764</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>580.9516432466103</v>
+        <v>702.7425749017788</v>
       </c>
       <c r="C3" t="n">
-        <v>419.247970487565</v>
+        <v>541.0389021427335</v>
       </c>
       <c r="D3" t="n">
-        <v>280.4093334777771</v>
+        <v>402.2002651329456</v>
       </c>
       <c r="E3" t="n">
-        <v>280.4093334777771</v>
+        <v>402.2002651329456</v>
       </c>
       <c r="F3" t="n">
-        <v>235.950894939457</v>
+        <v>267.5064670828199</v>
       </c>
       <c r="G3" t="n">
-        <v>107.2223949627416</v>
+        <v>138.7779671061045</v>
       </c>
       <c r="H3" t="n">
-        <v>107.2223949627416</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="I3" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="J3" t="n">
-        <v>99.09425618590872</v>
+        <v>99.0942561859087</v>
       </c>
       <c r="K3" t="n">
-        <v>328.5848087460974</v>
+        <v>328.5848087460973</v>
       </c>
       <c r="L3" t="n">
-        <v>694.406653916213</v>
+        <v>678.6168494575675</v>
       </c>
       <c r="M3" t="n">
-        <v>911.3875451169516</v>
+        <v>1159.263206410999</v>
       </c>
       <c r="N3" t="n">
-        <v>1392.033902070383</v>
+        <v>1639.909563364431</v>
       </c>
       <c r="O3" t="n">
-        <v>1784.233852854534</v>
+        <v>1639.909563364431</v>
       </c>
       <c r="P3" t="n">
-        <v>1784.233852854534</v>
+        <v>1942.005482640128</v>
       </c>
       <c r="Q3" t="n">
-        <v>1942.005482640129</v>
+        <v>1942.005482640128</v>
       </c>
       <c r="R3" t="n">
-        <v>1942.005482640129</v>
+        <v>1882.221213735074</v>
       </c>
       <c r="S3" t="n">
-        <v>1789.205995652869</v>
+        <v>1729.421726747814</v>
       </c>
       <c r="T3" t="n">
-        <v>1600.520891818854</v>
+        <v>1540.736622913799</v>
       </c>
       <c r="U3" t="n">
-        <v>1600.520891818854</v>
+        <v>1322.241830512109</v>
       </c>
       <c r="V3" t="n">
-        <v>1372.125269267188</v>
+        <v>1093.846207960443</v>
       </c>
       <c r="W3" t="n">
-        <v>1130.809400500498</v>
+        <v>852.5303391937533</v>
       </c>
       <c r="X3" t="n">
-        <v>932.8924123782923</v>
+        <v>702.7425749017788</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.3710860278711</v>
+        <v>702.7425749017788</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="C4" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="D4" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="E4" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="F4" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="G4" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="H4" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="I4" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="J4" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="K4" t="n">
         <v>72.44429739744598</v>
@@ -4513,13 +4513,13 @@
         <v>532.3620135524241</v>
       </c>
       <c r="S4" t="n">
-        <v>318.6522509561116</v>
+        <v>532.3620135524241</v>
       </c>
       <c r="T4" t="n">
-        <v>318.6522509561116</v>
+        <v>530.8278781990042</v>
       </c>
       <c r="U4" t="n">
-        <v>318.6522509561116</v>
+        <v>530.8278781990042</v>
       </c>
       <c r="V4" t="n">
         <v>270.0925737574268</v>
@@ -4528,10 +4528,10 @@
         <v>270.0925737574268</v>
       </c>
       <c r="X4" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1063.781801193801</v>
+        <v>628.6173974927333</v>
       </c>
       <c r="C5" t="n">
-        <v>681.8480425266082</v>
+        <v>628.6173974927333</v>
       </c>
       <c r="D5" t="n">
-        <v>309.0240777538318</v>
+        <v>628.6173974927333</v>
       </c>
       <c r="E5" t="n">
-        <v>309.0240777538318</v>
+        <v>233.8316775988401</v>
       </c>
       <c r="F5" t="n">
         <v>223.7208909494145</v>
@@ -4562,55 +4562,55 @@
         <v>211.6573084440066</v>
       </c>
       <c r="I5" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="J5" t="n">
-        <v>38.84010965280257</v>
+        <v>110.8386539256082</v>
       </c>
       <c r="K5" t="n">
-        <v>278.9804816975853</v>
+        <v>350.979025970391</v>
       </c>
       <c r="L5" t="n">
-        <v>626.8658547825316</v>
+        <v>698.8643990553372</v>
       </c>
       <c r="M5" t="n">
-        <v>1020.10502103562</v>
+        <v>936.0803893369884</v>
       </c>
       <c r="N5" t="n">
-        <v>1398.436379723335</v>
+        <v>1314.411748024704</v>
       </c>
       <c r="O5" t="n">
-        <v>1703.440964196169</v>
+        <v>1619.416332497538</v>
       </c>
       <c r="P5" t="n">
-        <v>1931.597860652222</v>
+        <v>1847.573228953591</v>
       </c>
       <c r="Q5" t="n">
-        <v>1942.005482640129</v>
+        <v>1942.005482640128</v>
       </c>
       <c r="R5" t="n">
-        <v>1851.367196135982</v>
+        <v>1851.367196135981</v>
       </c>
       <c r="S5" t="n">
-        <v>1851.367196135982</v>
+        <v>1851.367196135981</v>
       </c>
       <c r="T5" t="n">
-        <v>1851.367196135982</v>
+        <v>1627.008249866993</v>
       </c>
       <c r="U5" t="n">
-        <v>1851.367196135982</v>
+        <v>1372.122913580987</v>
       </c>
       <c r="V5" t="n">
-        <v>1851.367196135982</v>
+        <v>1372.122913580987</v>
       </c>
       <c r="W5" t="n">
-        <v>1851.367196135982</v>
+        <v>1009.587983438588</v>
       </c>
       <c r="X5" t="n">
-        <v>1851.367196135982</v>
+        <v>628.6173974927333</v>
       </c>
       <c r="Y5" t="n">
-        <v>1457.82534071182</v>
+        <v>628.6173974927333</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>818.2150127015447</v>
+        <v>710.9319478351197</v>
       </c>
       <c r="C6" t="n">
-        <v>656.5113399424994</v>
+        <v>549.2282750760744</v>
       </c>
       <c r="D6" t="n">
-        <v>517.6727029327114</v>
+        <v>549.2282750760744</v>
       </c>
       <c r="E6" t="n">
-        <v>370.6446929895827</v>
+        <v>402.2002651329456</v>
       </c>
       <c r="F6" t="n">
-        <v>235.950894939457</v>
+        <v>267.5064670828199</v>
       </c>
       <c r="G6" t="n">
-        <v>107.2223949627416</v>
+        <v>138.7779671061045</v>
       </c>
       <c r="H6" t="n">
-        <v>107.2223949627416</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="I6" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="J6" t="n">
-        <v>99.09425618590872</v>
+        <v>99.0942561859087</v>
       </c>
       <c r="K6" t="n">
-        <v>328.5848087460974</v>
+        <v>328.5848087460973</v>
       </c>
       <c r="L6" t="n">
-        <v>609.2916258412544</v>
+        <v>609.291625841254</v>
       </c>
       <c r="M6" t="n">
         <v>1089.937982794686</v>
@@ -4665,31 +4665,31 @@
         <v>1784.233852854534</v>
       </c>
       <c r="Q6" t="n">
-        <v>1942.005482640129</v>
+        <v>1942.005482640128</v>
       </c>
       <c r="R6" t="n">
-        <v>1942.005482640129</v>
+        <v>1882.221213735074</v>
       </c>
       <c r="S6" t="n">
-        <v>1942.005482640129</v>
+        <v>1729.421726747814</v>
       </c>
       <c r="T6" t="n">
-        <v>1858.362065553273</v>
+        <v>1540.736622913799</v>
       </c>
       <c r="U6" t="n">
-        <v>1639.867273151583</v>
+        <v>1322.241830512109</v>
       </c>
       <c r="V6" t="n">
-        <v>1411.471650599917</v>
+        <v>1093.846207960443</v>
       </c>
       <c r="W6" t="n">
-        <v>1170.155781833227</v>
+        <v>1093.846207960443</v>
       </c>
       <c r="X6" t="n">
-        <v>1170.155781833227</v>
+        <v>895.9292198382378</v>
       </c>
       <c r="Y6" t="n">
-        <v>977.6344554828056</v>
+        <v>870.3513906163805</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="C7" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="D7" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="E7" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="F7" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="G7" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="H7" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="I7" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="J7" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="K7" t="n">
         <v>72.44429739744598</v>
@@ -4747,28 +4747,28 @@
         <v>570.8993548987351</v>
       </c>
       <c r="R7" t="n">
-        <v>570.8993548987351</v>
+        <v>558.1754643197246</v>
       </c>
       <c r="S7" t="n">
-        <v>357.1895923024226</v>
+        <v>558.1754643197246</v>
       </c>
       <c r="T7" t="n">
-        <v>357.1895923024226</v>
+        <v>324.9965111354034</v>
       </c>
       <c r="U7" t="n">
-        <v>69.99935279152248</v>
+        <v>324.9965111354034</v>
       </c>
       <c r="V7" t="n">
-        <v>38.84010965280257</v>
+        <v>324.9965111354034</v>
       </c>
       <c r="W7" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="X7" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.84010965280257</v>
+        <v>38.84010965280256</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.989123613633</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="C8" t="n">
-        <v>841.0553649464407</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="D8" t="n">
-        <v>468.2314001736643</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="E8" t="n">
-        <v>73.44568027977112</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="F8" t="n">
-        <v>63.3348936303455</v>
+        <v>386.9091130092979</v>
       </c>
       <c r="G8" t="n">
-        <v>51.27131112493754</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>2010.574518555815</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W8" t="n">
-        <v>2010.574518555815</v>
+        <v>1327.089953278928</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.574518555815</v>
+        <v>1184.605294600905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.032663131652</v>
+        <v>791.0634391767427</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>852.9547312933042</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C9" t="n">
-        <v>691.251058534259</v>
+        <v>541.4921003673437</v>
       </c>
       <c r="D9" t="n">
-        <v>552.412421524471</v>
+        <v>402.6534633575558</v>
       </c>
       <c r="E9" t="n">
-        <v>405.3844115813423</v>
+        <v>255.625453414427</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>120.9316553643013</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
         <v>42.02425610119923</v>
@@ -4884,10 +4884,10 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
         <v>737.8796590913968</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1759.728214238687</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.332591687021</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1402.812488547192</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X9" t="n">
-        <v>1204.895500424986</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y9" t="n">
-        <v>1012.374174074565</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>515.4336739462533</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>363.4246597075721</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>936.0381185586316</v>
+        <v>936.0381185586311</v>
       </c>
       <c r="C11" t="n">
-        <v>887.3633998515033</v>
+        <v>668.6802846472049</v>
       </c>
       <c r="D11" t="n">
-        <v>629.1153598344933</v>
+        <v>410.4322446301951</v>
       </c>
       <c r="E11" t="n">
-        <v>629.1153598344933</v>
+        <v>408.9172143315867</v>
       </c>
       <c r="F11" t="n">
-        <v>629.1153598344933</v>
+        <v>109.3419483975233</v>
       </c>
       <c r="G11" t="n">
-        <v>327.5872980444477</v>
+        <v>109.3419483975233</v>
       </c>
       <c r="H11" t="n">
         <v>109.3419483975233</v>
@@ -5039,28 +5039,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
-        <v>235.395082488018</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K11" t="n">
-        <v>475.5354545328008</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L11" t="n">
-        <v>823.4208276177471</v>
+        <v>823.420827617747</v>
       </c>
       <c r="M11" t="n">
         <v>1328.955857723962</v>
       </c>
       <c r="N11" t="n">
-        <v>1707.287216411677</v>
+        <v>1791.682840385323</v>
       </c>
       <c r="O11" t="n">
-        <v>2120.14870410857</v>
+        <v>2096.687424858157</v>
       </c>
       <c r="P11" t="n">
-        <v>2348.305600564623</v>
+        <v>2324.84432131421</v>
       </c>
       <c r="Q11" t="n">
-        <v>2555.033718104287</v>
+        <v>2531.572438853874</v>
       </c>
       <c r="R11" t="n">
         <v>2555.033718104287</v>
@@ -5081,7 +5081,7 @@
         <v>1761.92587971202</v>
       </c>
       <c r="X11" t="n">
-        <v>1494.47166398928</v>
+        <v>1494.471663989279</v>
       </c>
       <c r="Y11" t="n">
         <v>1215.505733320884</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E12" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F12" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G12" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H12" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I12" t="n">
         <v>51.10067436208574</v>
@@ -5142,28 +5142,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S12" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>348.7421712453797</v>
+        <v>348.7421712453796</v>
       </c>
       <c r="C13" t="n">
-        <v>293.7021264628264</v>
+        <v>293.7021264628262</v>
       </c>
       <c r="D13" t="n">
-        <v>255.2061580463555</v>
+        <v>255.2061580463553</v>
       </c>
       <c r="E13" t="n">
-        <v>217.7730685634408</v>
+        <v>217.7730685634406</v>
       </c>
       <c r="F13" t="n">
-        <v>179.8683383449843</v>
+        <v>179.8683383449841</v>
       </c>
       <c r="G13" t="n">
-        <v>125.5245144686007</v>
+        <v>125.5245144686005</v>
       </c>
       <c r="H13" t="n">
-        <v>80.72779400364107</v>
+        <v>80.72779400364084</v>
       </c>
       <c r="I13" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>104.5344386772431</v>
+        <v>104.5344386772426</v>
       </c>
       <c r="K13" t="n">
-        <v>250.4344902750128</v>
+        <v>250.4344902750126</v>
       </c>
       <c r="L13" t="n">
-        <v>463.3374335283992</v>
+        <v>463.3374335283985</v>
       </c>
       <c r="M13" t="n">
-        <v>693.6268035091275</v>
+        <v>693.6268035091273</v>
       </c>
       <c r="N13" t="n">
-        <v>924.3450091118546</v>
+        <v>924.3450091118543</v>
       </c>
       <c r="O13" t="n">
         <v>1135.104519460671</v>
@@ -5233,16 +5233,16 @@
         <v>959.5972449874528</v>
       </c>
       <c r="V13" t="n">
-        <v>813.4378653016419</v>
+        <v>813.4378653016416</v>
       </c>
       <c r="W13" t="n">
-        <v>641.8573885748074</v>
+        <v>641.8573885748073</v>
       </c>
       <c r="X13" t="n">
-        <v>525.1808492259496</v>
+        <v>525.1808492259495</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.7216151739931</v>
+        <v>417.721615173993</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>936.0381185586319</v>
+        <v>1408.907186888256</v>
       </c>
       <c r="C14" t="n">
-        <v>668.6802846472058</v>
+        <v>1408.907186888256</v>
       </c>
       <c r="D14" t="n">
-        <v>410.4322446301956</v>
+        <v>1150.659146871246</v>
       </c>
       <c r="E14" t="n">
-        <v>130.2224494920688</v>
+        <v>870.449351733119</v>
       </c>
       <c r="F14" t="n">
-        <v>130.2224494920688</v>
+        <v>570.8740857990557</v>
       </c>
       <c r="G14" t="n">
-        <v>130.2224494920688</v>
+        <v>269.3460240090101</v>
       </c>
       <c r="H14" t="n">
-        <v>109.3419483975233</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I14" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J14" t="n">
         <v>235.395082488018</v>
@@ -5282,19 +5282,19 @@
         <v>587.8313183859275</v>
       </c>
       <c r="L14" t="n">
-        <v>1020.11231544452</v>
+        <v>935.7166914708737</v>
       </c>
       <c r="M14" t="n">
-        <v>1413.351481697608</v>
+        <v>1328.955857723962</v>
       </c>
       <c r="N14" t="n">
-        <v>1791.682840385323</v>
+        <v>1819.583080264804</v>
       </c>
       <c r="O14" t="n">
-        <v>2096.687424858157</v>
+        <v>2124.587664737638</v>
       </c>
       <c r="P14" t="n">
-        <v>2324.84432131421</v>
+        <v>2352.744561193691</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.572438853874</v>
@@ -5315,13 +5315,13 @@
         <v>2009.884885098653</v>
       </c>
       <c r="W14" t="n">
-        <v>1761.925879712021</v>
+        <v>1761.92587971202</v>
       </c>
       <c r="X14" t="n">
-        <v>1494.47166398928</v>
+        <v>1761.92587971202</v>
       </c>
       <c r="Y14" t="n">
-        <v>1215.505733320885</v>
+        <v>1688.374801650508</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C15" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D15" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E15" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G15" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H15" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I15" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J15" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M15" t="n">
         <v>1191.700572135723</v>
@@ -5379,22 +5379,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S15" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X15" t="n">
         <v>1267.641586535707</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.74217124538</v>
+        <v>348.7421712453796</v>
       </c>
       <c r="C16" t="n">
-        <v>293.7021264628264</v>
+        <v>293.7021264628263</v>
       </c>
       <c r="D16" t="n">
-        <v>255.2061580463555</v>
+        <v>255.2061580463554</v>
       </c>
       <c r="E16" t="n">
         <v>217.7730685634407</v>
@@ -5428,10 +5428,10 @@
         <v>125.5245144686006</v>
       </c>
       <c r="H16" t="n">
-        <v>80.72779400364084</v>
+        <v>80.72779400364081</v>
       </c>
       <c r="I16" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J16" t="n">
         <v>104.5344386772431</v>
@@ -5440,46 +5440,46 @@
         <v>250.4344902750131</v>
       </c>
       <c r="L16" t="n">
-        <v>463.3374335283992</v>
+        <v>463.3374335283993</v>
       </c>
       <c r="M16" t="n">
-        <v>693.6268035091276</v>
+        <v>693.6268035091275</v>
       </c>
       <c r="N16" t="n">
-        <v>924.3450091118546</v>
+        <v>924.3450091118543</v>
       </c>
       <c r="O16" t="n">
         <v>1135.104519460671</v>
       </c>
       <c r="P16" t="n">
-        <v>1310.368867041935</v>
+        <v>1310.368867041936</v>
       </c>
       <c r="Q16" t="n">
-        <v>1384.894282641542</v>
+        <v>1384.894282641543</v>
       </c>
       <c r="R16" t="n">
-        <v>1349.948426011687</v>
+        <v>1349.948426011688</v>
       </c>
       <c r="S16" t="n">
-        <v>1250.814588171141</v>
+        <v>1250.814588171142</v>
       </c>
       <c r="T16" t="n">
-        <v>1132.211559742586</v>
+        <v>1132.211559742587</v>
       </c>
       <c r="U16" t="n">
-        <v>959.5972449874528</v>
+        <v>959.5972449874531</v>
       </c>
       <c r="V16" t="n">
-        <v>813.437865301642</v>
+        <v>813.4378653016421</v>
       </c>
       <c r="W16" t="n">
         <v>641.8573885748076</v>
       </c>
       <c r="X16" t="n">
-        <v>525.1808492259499</v>
+        <v>525.1808492259495</v>
       </c>
       <c r="Y16" t="n">
-        <v>417.7216151739934</v>
+        <v>417.7216151739931</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5513,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L17" t="n">
-        <v>875.5927382556529</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M17" t="n">
-        <v>1268.831904508741</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N17" t="n">
-        <v>1647.163263196456</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O17" t="n">
-        <v>1952.16784766929</v>
+        <v>1903.509018979632</v>
       </c>
       <c r="P17" t="n">
-        <v>2220.500500038399</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R17" t="n">
         <v>2555.033718104287</v>
@@ -5558,7 +5558,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="18">
@@ -5574,13 +5574,13 @@
         <v>753.9971446449797</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E18" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F18" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G18" t="n">
         <v>219.4208171253267</v>
@@ -5598,7 +5598,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M18" t="n">
         <v>1191.700572135723</v>
@@ -5653,19 +5653,19 @@
         <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54268635500837</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E19" t="n">
-        <v>79.39795846875474</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F19" t="n">
-        <v>79.39795846875474</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G19" t="n">
-        <v>78.28534634413701</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H19" t="n">
-        <v>78.28534634413701</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="I19" t="n">
         <v>78.28534634413701</v>
@@ -5732,10 +5732,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D20" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E20" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F20" t="n">
         <v>469.4217245791957</v>
@@ -5750,28 +5750,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>287.5669931259238</v>
+        <v>238.9081644362655</v>
       </c>
       <c r="K20" t="n">
-        <v>567.8831210837625</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L20" t="n">
-        <v>915.7684941687087</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M20" t="n">
-        <v>1309.007660421797</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N20" t="n">
-        <v>1687.339019109512</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O20" t="n">
-        <v>1992.343603582346</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P20" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q20" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5780,13 +5780,13 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T20" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U20" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V20" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W20" t="n">
         <v>2028.08193847085</v>
@@ -5795,7 +5795,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5829,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F22" t="n">
         <v>52.21328648670347</v>
@@ -5917,43 +5917,43 @@
         <v>185.3119415069887</v>
       </c>
       <c r="M22" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O22" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P22" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S22" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T22" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E23" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F23" t="n">
         <v>469.4217245791957</v>
@@ -5984,31 +5984,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J23" t="n">
-        <v>287.5669931259238</v>
+        <v>238.9081644362657</v>
       </c>
       <c r="K23" t="n">
-        <v>527.7073651707066</v>
+        <v>479.0485364810485</v>
       </c>
       <c r="L23" t="n">
-        <v>875.5927382556529</v>
+        <v>991.4016840570271</v>
       </c>
       <c r="M23" t="n">
-        <v>1268.831904508741</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N23" t="n">
-        <v>1647.163263196456</v>
+        <v>1762.972208997831</v>
       </c>
       <c r="O23" t="n">
-        <v>2116.635622160323</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P23" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6032,7 +6032,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E24" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419378</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G24" t="n">
-        <v>204.7081996652224</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H24" t="n">
-        <v>104.7703422119204</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L24" t="n">
         <v>706.6672186254962</v>
@@ -6090,22 +6090,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S24" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X24" t="n">
         <v>1267.641586535707</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.90950739287317</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C25" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D25" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E25" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F25" t="n">
-        <v>65.91841943632294</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G25" t="n">
-        <v>64.80580731170521</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H25" t="n">
-        <v>73.07245222190386</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="I25" t="n">
-        <v>96.20682289912145</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="J25" t="n">
-        <v>96.20682289912145</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="K25" t="n">
-        <v>129.8110106437649</v>
+        <v>92.9715070169278</v>
       </c>
       <c r="L25" t="n">
-        <v>230.4180900440244</v>
+        <v>193.5785864171873</v>
       </c>
       <c r="M25" t="n">
-        <v>348.4115961716261</v>
+        <v>311.572092544789</v>
       </c>
       <c r="N25" t="n">
-        <v>466.8339379212265</v>
+        <v>429.9944342943894</v>
       </c>
       <c r="O25" t="n">
-        <v>565.2975844169162</v>
+        <v>528.4580807900791</v>
       </c>
       <c r="P25" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q25" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R25" t="n">
         <v>628.266068145054</v>
@@ -6178,19 +6178,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U25" t="n">
-        <v>397.608522376117</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V25" t="n">
-        <v>304.6803544420719</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W25" t="n">
-        <v>186.3310894670033</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X25" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.65773956972072</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1652.229537859158</v>
+        <v>1652.229537859157</v>
       </c>
       <c r="C26" t="n">
-        <v>1398.363405813929</v>
+        <v>1398.363405813928</v>
       </c>
       <c r="D26" t="n">
-        <v>1153.607067663116</v>
+        <v>1153.607067663115</v>
       </c>
       <c r="E26" t="n">
-        <v>886.888974391187</v>
+        <v>886.8889743911853</v>
       </c>
       <c r="F26" t="n">
-        <v>600.8054103233212</v>
+        <v>600.8054103233194</v>
       </c>
       <c r="G26" t="n">
-        <v>312.7690503994718</v>
+        <v>312.7690503994712</v>
       </c>
       <c r="H26" t="n">
-        <v>108.0154026187449</v>
+        <v>108.0154026187442</v>
       </c>
       <c r="I26" t="n">
-        <v>63.26583044950468</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J26" t="n">
-        <v>260.7834555744971</v>
+        <v>260.7834555744969</v>
       </c>
       <c r="K26" t="n">
-        <v>626.4429084714666</v>
+        <v>626.4429084714661</v>
       </c>
       <c r="L26" t="n">
-        <v>1099.8473624086</v>
+        <v>1099.847362408599</v>
       </c>
       <c r="M26" t="n">
         <v>1618.605609513874</v>
@@ -6245,16 +6245,16 @@
         <v>2906.655691687037</v>
       </c>
       <c r="Q26" t="n">
-        <v>3126.607026225761</v>
+        <v>3126.60702622576</v>
       </c>
       <c r="R26" t="n">
-        <v>3163.291522475234</v>
+        <v>3163.291522475233</v>
       </c>
       <c r="S26" t="n">
-        <v>3104.130173727551</v>
+        <v>3104.13017372755</v>
       </c>
       <c r="T26" t="n">
-        <v>3007.838854080526</v>
+        <v>3007.838854080525</v>
       </c>
       <c r="U26" t="n">
         <v>2881.021144416484</v>
@@ -6269,7 +6269,7 @@
         <v>2183.679679557411</v>
       </c>
       <c r="Y26" t="n">
-        <v>1918.205450755213</v>
+        <v>1918.205450755212</v>
       </c>
     </row>
     <row r="27">
@@ -6294,13 +6294,13 @@
         <v>345.6018557293567</v>
       </c>
       <c r="G27" t="n">
-        <v>231.5859732127456</v>
+        <v>216.8733557526412</v>
       </c>
       <c r="H27" t="n">
-        <v>131.6481157594437</v>
+        <v>116.9354982993393</v>
       </c>
       <c r="I27" t="n">
-        <v>63.26583044950468</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J27" t="n">
         <v>123.5199769826108</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.4654142694168</v>
+        <v>266.465414269417</v>
       </c>
       <c r="C28" t="n">
-        <v>224.9170713530609</v>
+        <v>224.917071353061</v>
       </c>
       <c r="D28" t="n">
-        <v>199.9128048027874</v>
+        <v>199.9128048027875</v>
       </c>
       <c r="E28" t="n">
-        <v>175.97141718607</v>
+        <v>175.9714171860701</v>
       </c>
       <c r="F28" t="n">
-        <v>151.5583888338109</v>
+        <v>151.558388833811</v>
       </c>
       <c r="G28" t="n">
-        <v>110.7062668236247</v>
+        <v>110.7062668236248</v>
       </c>
       <c r="H28" t="n">
         <v>79.40124822486236</v>
       </c>
       <c r="I28" t="n">
-        <v>63.26583044950468</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J28" t="n">
-        <v>63.26583044950468</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="K28" t="n">
-        <v>218.4312762132868</v>
+        <v>222.3890990463347</v>
       </c>
       <c r="L28" t="n">
-        <v>319.0383556135463</v>
+        <v>448.515259298781</v>
       </c>
       <c r="M28" t="n">
-        <v>437.0318617411481</v>
+        <v>692.0278462785693</v>
       </c>
       <c r="N28" t="n">
-        <v>680.9732843429351</v>
+        <v>894.2409977937898</v>
       </c>
       <c r="O28" t="n">
-        <v>904.9560116908115</v>
+        <v>1118.223725141666</v>
       </c>
       <c r="P28" t="n">
-        <v>1093.443576271136</v>
+        <v>1181.192208869804</v>
       </c>
       <c r="Q28" t="n">
-        <v>1181.192208869803</v>
+        <v>1181.192208869804</v>
       </c>
       <c r="R28" t="n">
-        <v>1159.738054106145</v>
+        <v>1159.738054106146</v>
       </c>
       <c r="S28" t="n">
         <v>1074.095918131797</v>
       </c>
       <c r="T28" t="n">
-        <v>968.9845915694395</v>
+        <v>968.9845915694398</v>
       </c>
       <c r="U28" t="n">
-        <v>809.8619786805032</v>
+        <v>809.8619786805034</v>
       </c>
       <c r="V28" t="n">
-        <v>677.1943008608896</v>
+        <v>677.1943008608898</v>
       </c>
       <c r="W28" t="n">
-        <v>519.1055260002524</v>
+        <v>519.1055260002527</v>
       </c>
       <c r="X28" t="n">
-        <v>415.9206885175919</v>
+        <v>415.9206885175922</v>
       </c>
       <c r="Y28" t="n">
-        <v>321.9531563318328</v>
+        <v>321.953156331833</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1652.229537859158</v>
+        <v>1652.229537859157</v>
       </c>
       <c r="C29" t="n">
-        <v>1398.363405813929</v>
+        <v>1398.363405813928</v>
       </c>
       <c r="D29" t="n">
-        <v>1153.607067663116</v>
+        <v>1153.607067663115</v>
       </c>
       <c r="E29" t="n">
-        <v>886.8889743911868</v>
+        <v>886.888974391186</v>
       </c>
       <c r="F29" t="n">
-        <v>600.8054103233201</v>
+        <v>600.8054103233203</v>
       </c>
       <c r="G29" t="n">
-        <v>312.7690503994719</v>
+        <v>312.769050399472</v>
       </c>
       <c r="H29" t="n">
         <v>108.0154026187449</v>
       </c>
       <c r="I29" t="n">
-        <v>63.26583044950468</v>
+        <v>63.26583044950467</v>
       </c>
       <c r="J29" t="n">
-        <v>260.7834555744971</v>
+        <v>260.7834555744969</v>
       </c>
       <c r="K29" t="n">
-        <v>626.4429084714666</v>
+        <v>626.4429084714664</v>
       </c>
       <c r="L29" t="n">
         <v>1099.8473624086</v>
@@ -6485,28 +6485,28 @@
         <v>3126.607026225761</v>
       </c>
       <c r="R29" t="n">
-        <v>3163.291522475234</v>
+        <v>3163.291522475233</v>
       </c>
       <c r="S29" t="n">
-        <v>3104.130173727552</v>
+        <v>3104.130173727551</v>
       </c>
       <c r="T29" t="n">
-        <v>3007.838854080527</v>
+        <v>3007.838854080526</v>
       </c>
       <c r="U29" t="n">
-        <v>2881.021144416485</v>
+        <v>2881.021144416484</v>
       </c>
       <c r="V29" t="n">
-        <v>2672.10949693439</v>
+        <v>2672.109496934389</v>
       </c>
       <c r="W29" t="n">
-        <v>2437.642193413954</v>
+        <v>2437.642193413953</v>
       </c>
       <c r="X29" t="n">
-        <v>2183.679679557412</v>
+        <v>2183.679679557411</v>
       </c>
       <c r="Y29" t="n">
-        <v>1918.205450755214</v>
+        <v>1918.205450755212</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>216.8733557526412</v>
       </c>
       <c r="H30" t="n">
-        <v>116.9354982993393</v>
+        <v>131.6481157594437</v>
       </c>
       <c r="I30" t="n">
-        <v>63.26583044950468</v>
+        <v>63.26583044950467</v>
       </c>
       <c r="J30" t="n">
         <v>123.5199769826108</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.4654142694171</v>
+        <v>266.4654142694173</v>
       </c>
       <c r="C31" t="n">
-        <v>224.9170713530611</v>
+        <v>224.9170713530613</v>
       </c>
       <c r="D31" t="n">
-        <v>199.9128048027876</v>
+        <v>199.9128048027877</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9714171860702</v>
+        <v>175.9714171860703</v>
       </c>
       <c r="F31" t="n">
         <v>151.5583888338111</v>
       </c>
       <c r="G31" t="n">
-        <v>110.7062668236248</v>
+        <v>110.7062668236249</v>
       </c>
       <c r="H31" t="n">
-        <v>79.4012482248624</v>
+        <v>79.40124822486243</v>
       </c>
       <c r="I31" t="n">
-        <v>63.26583044950468</v>
+        <v>63.26583044950467</v>
       </c>
       <c r="J31" t="n">
         <v>129.922811763722</v>
       </c>
       <c r="K31" t="n">
-        <v>289.0460803605521</v>
+        <v>218.4312762132884</v>
       </c>
       <c r="L31" t="n">
-        <v>515.1722406129983</v>
+        <v>444.5574364657346</v>
       </c>
       <c r="M31" t="n">
-        <v>688.0700234455223</v>
+        <v>562.5509425933363</v>
       </c>
       <c r="N31" t="n">
-        <v>806.4923651951227</v>
+        <v>680.9732843429367</v>
       </c>
       <c r="O31" t="n">
-        <v>904.9560116908124</v>
+        <v>904.9560116908131</v>
       </c>
       <c r="P31" t="n">
-        <v>1093.443576271137</v>
+        <v>1093.443576271138</v>
       </c>
       <c r="Q31" t="n">
-        <v>1181.192208869804</v>
+        <v>1181.192208869805</v>
       </c>
       <c r="R31" t="n">
-        <v>1159.738054106146</v>
+        <v>1159.738054106147</v>
       </c>
       <c r="S31" t="n">
-        <v>1074.095918131797</v>
+        <v>1074.095918131798</v>
       </c>
       <c r="T31" t="n">
-        <v>968.98459156944</v>
+        <v>968.9845915694403</v>
       </c>
       <c r="U31" t="n">
-        <v>809.8619786805036</v>
+        <v>809.861978680504</v>
       </c>
       <c r="V31" t="n">
-        <v>677.1943008608899</v>
+        <v>677.1943008608903</v>
       </c>
       <c r="W31" t="n">
-        <v>519.1055260002528</v>
+        <v>519.1055260002531</v>
       </c>
       <c r="X31" t="n">
-        <v>415.9206885175923</v>
+        <v>415.9206885175926</v>
       </c>
       <c r="Y31" t="n">
-        <v>321.9531563318332</v>
+        <v>321.9531563318334</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>1576.234575957424</v>
       </c>
       <c r="C32" t="n">
-        <v>1332.769988976958</v>
+        <v>1332.769988976957</v>
       </c>
       <c r="D32" t="n">
         <v>1098.415195890907</v>
       </c>
       <c r="E32" t="n">
-        <v>842.0986476837403</v>
+        <v>842.0986476837404</v>
       </c>
       <c r="F32" t="n">
-        <v>566.4166286806367</v>
+        <v>566.4166286806369</v>
       </c>
       <c r="G32" t="n">
-        <v>288.7818138215507</v>
+        <v>288.7818138215512</v>
       </c>
       <c r="H32" t="n">
-        <v>94.42971110558594</v>
+        <v>94.42971110558577</v>
       </c>
       <c r="I32" t="n">
-        <v>60.08168400110802</v>
+        <v>60.08168400110801</v>
       </c>
       <c r="J32" t="n">
-        <v>132.0802282739137</v>
+        <v>267.793863444074</v>
       </c>
       <c r="K32" t="n">
-        <v>507.9342354888567</v>
+        <v>643.6478706590171</v>
       </c>
       <c r="L32" t="n">
-        <v>991.5332437439631</v>
+        <v>1127.246878914124</v>
       </c>
       <c r="M32" t="n">
-        <v>1520.486045167211</v>
+        <v>1520.486045167212</v>
       </c>
       <c r="N32" t="n">
-        <v>2034.531039025087</v>
+        <v>2034.531039025088</v>
       </c>
       <c r="O32" t="n">
-        <v>2475.249258668081</v>
+        <v>2363.188729005044</v>
       </c>
       <c r="P32" t="n">
-        <v>2839.119790294294</v>
+        <v>2727.059260631257</v>
       </c>
       <c r="Q32" t="n">
-        <v>2957.205149487955</v>
+        <v>2957.205149487954</v>
       </c>
       <c r="R32" t="n">
-        <v>3004.084200055401</v>
+        <v>3004.0842000554</v>
       </c>
       <c r="S32" t="n">
-        <v>2955.324396372482</v>
+        <v>2955.324396372481</v>
       </c>
       <c r="T32" t="n">
-        <v>2869.434621790219</v>
+        <v>2869.434621790218</v>
       </c>
       <c r="U32" t="n">
-        <v>2753.018457190939</v>
+        <v>2753.018457190938</v>
       </c>
       <c r="V32" t="n">
-        <v>2554.508354773607</v>
+        <v>2554.508354773606</v>
       </c>
       <c r="W32" t="n">
-        <v>2330.442596317934</v>
+        <v>2330.442596317933</v>
       </c>
       <c r="X32" t="n">
-        <v>2086.881627526153</v>
+        <v>2086.881627526152</v>
       </c>
       <c r="Y32" t="n">
         <v>1831.808943788717</v>
@@ -6765,16 +6765,16 @@
         <v>477.1115073310854</v>
       </c>
       <c r="F33" t="n">
-        <v>342.4177092809598</v>
+        <v>357.1303267410644</v>
       </c>
       <c r="G33" t="n">
-        <v>213.6892093042444</v>
+        <v>228.401826764349</v>
       </c>
       <c r="H33" t="n">
-        <v>113.7513518509424</v>
+        <v>128.463969311047</v>
       </c>
       <c r="I33" t="n">
-        <v>60.08168400110802</v>
+        <v>60.08168400110801</v>
       </c>
       <c r="J33" t="n">
         <v>120.3358305342142</v>
@@ -6783,7 +6783,7 @@
         <v>349.8263830944028</v>
       </c>
       <c r="L33" t="n">
-        <v>715.6482282645185</v>
+        <v>715.6482282645184</v>
       </c>
       <c r="M33" t="n">
         <v>1200.681581774745</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>190.4704523676841</v>
+        <v>190.4704523676831</v>
       </c>
       <c r="C34" t="n">
-        <v>159.3236545160904</v>
+        <v>159.3236545160896</v>
       </c>
       <c r="D34" t="n">
-        <v>144.7209330305793</v>
+        <v>144.7209330305785</v>
       </c>
       <c r="E34" t="n">
-        <v>131.1810904786242</v>
+        <v>131.1810904786236</v>
       </c>
       <c r="F34" t="n">
-        <v>117.1696071911274</v>
+        <v>117.169607191127</v>
       </c>
       <c r="G34" t="n">
-        <v>86.71903024570349</v>
+        <v>86.71903024570319</v>
       </c>
       <c r="H34" t="n">
-        <v>65.81555671170341</v>
+        <v>65.81555671170325</v>
       </c>
       <c r="I34" t="n">
-        <v>60.08168400110802</v>
+        <v>60.08168400110801</v>
       </c>
       <c r="J34" t="n">
-        <v>136.933219633299</v>
+        <v>110.1536388823135</v>
       </c>
       <c r="K34" t="n">
-        <v>306.2510425481026</v>
+        <v>143.7578266269569</v>
       </c>
       <c r="L34" t="n">
-        <v>542.5717571185223</v>
+        <v>380.0785411973768</v>
       </c>
       <c r="M34" t="n">
-        <v>660.565263246124</v>
+        <v>498.0720473249785</v>
       </c>
       <c r="N34" t="n">
-        <v>778.9876049957244</v>
+        <v>616.4943890745789</v>
       </c>
       <c r="O34" t="n">
-        <v>877.451251491414</v>
+        <v>714.9580355702685</v>
       </c>
       <c r="P34" t="n">
-        <v>940.4197352195519</v>
+        <v>913.6401544685667</v>
       </c>
       <c r="Q34" t="n">
-        <v>1011.58334138521</v>
+        <v>1011.583341385208</v>
       </c>
       <c r="R34" t="n">
-        <v>1000.530731686314</v>
+        <v>1000.530731686312</v>
       </c>
       <c r="S34" t="n">
-        <v>925.2901407767281</v>
+        <v>925.2901407767259</v>
       </c>
       <c r="T34" t="n">
-        <v>830.5803592791329</v>
+        <v>830.580359279131</v>
       </c>
       <c r="U34" t="n">
-        <v>681.8592914549589</v>
+        <v>681.8592914549571</v>
       </c>
       <c r="V34" t="n">
-        <v>559.5931587001076</v>
+        <v>559.593158700106</v>
       </c>
       <c r="W34" t="n">
-        <v>411.9059289042328</v>
+        <v>411.9059289042314</v>
       </c>
       <c r="X34" t="n">
-        <v>319.1226364863346</v>
+        <v>319.1226364863334</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.5566493653378</v>
+        <v>235.5566493653367</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478543</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614934</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575747</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
         <v>287.5669931259238</v>
@@ -6941,19 +6941,19 @@
         <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556529</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
-        <v>1647.163263196456</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>1952.16784766929</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.5005000384</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
         <v>2479.400528215969</v>
@@ -6962,13 +6962,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V35" t="n">
         <v>2222.809732105717</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="36">
@@ -6999,25 +6999,25 @@
         <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G36" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H36" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287319</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208575</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54268635500837</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E37" t="n">
-        <v>74.031305562744</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F37" t="n">
-        <v>89.05279011354052</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G37" t="n">
-        <v>87.9401779889228</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V37" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670034</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C38" t="n">
         <v>1147.761190413098</v>
@@ -7166,52 +7166,52 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
         <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>1080.236268659741</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1473.475434912829</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1851.806793600545</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>2156.811378073378</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R38" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="S38" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U38" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X38" t="n">
         <v>1813.858934499875</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040245</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449792</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351913</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920625</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419369</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652215</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119195</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M39" t="n">
         <v>1191.700572135723</v>
@@ -7266,37 +7266,37 @@
         <v>1702.966218258845</v>
       </c>
       <c r="O39" t="n">
-        <v>2095.166169042996</v>
+        <v>2095.166169042995</v>
       </c>
       <c r="P39" t="n">
-        <v>2397.262088318693</v>
+        <v>2397.262088318692</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211972</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535706</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185285</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
         <v>185.3119415069887</v>
@@ -7348,34 +7348,34 @@
         <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1364.051382497235</v>
+        <v>1104.46656700865</v>
       </c>
       <c r="C41" t="n">
-        <v>1117.747104642061</v>
+        <v>858.1622891534764</v>
       </c>
       <c r="D41" t="n">
-        <v>880.5526206813033</v>
+        <v>620.9678051927187</v>
       </c>
       <c r="E41" t="n">
-        <v>621.3963815994289</v>
+        <v>361.811566110844</v>
       </c>
       <c r="F41" t="n">
-        <v>342.8746717216178</v>
+        <v>248.2924679527578</v>
       </c>
       <c r="G41" t="n">
         <v>248.2924679527578</v>
       </c>
       <c r="H41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>256.0296727787509</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>498.0273076342483</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>978.843134863054</v>
+        <v>757.0780961164803</v>
       </c>
       <c r="M41" t="n">
-        <v>1372.082301116142</v>
+        <v>1150.317262369568</v>
       </c>
       <c r="N41" t="n">
-        <v>1750.413659803858</v>
+        <v>1661.579075201143</v>
       </c>
       <c r="O41" t="n">
-        <v>2055.418244276691</v>
+        <v>1966.583659673978</v>
       </c>
       <c r="P41" t="n">
-        <v>2283.575140732745</v>
+        <v>2327.67101027389</v>
       </c>
       <c r="Q41" t="n">
-        <v>2510.937848563141</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S41" t="n">
-        <v>2555.033718104287</v>
+        <v>2503.43422354666</v>
       </c>
       <c r="T41" t="n">
-        <v>2555.033718104287</v>
+        <v>2414.70475808969</v>
       </c>
       <c r="U41" t="n">
-        <v>2555.033718104287</v>
+        <v>2295.448902615702</v>
       </c>
       <c r="V41" t="n">
-        <v>2353.683924812247</v>
+        <v>2094.099109323662</v>
       </c>
       <c r="W41" t="n">
-        <v>2126.778475481867</v>
+        <v>1867.193659993282</v>
       </c>
       <c r="X41" t="n">
-        <v>1880.377815815379</v>
+        <v>1620.793000326794</v>
       </c>
       <c r="Y41" t="n">
-        <v>1622.465441203235</v>
+        <v>1362.880625714651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201.3672788516135</v>
+        <v>201.3672788516134</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3807901253125</v>
+        <v>167.3807901253124</v>
       </c>
       <c r="D43" t="n">
-        <v>149.9383777650939</v>
+        <v>149.9383777650938</v>
       </c>
       <c r="E43" t="n">
-        <v>133.5588443384315</v>
+        <v>133.5588443384314</v>
       </c>
       <c r="F43" t="n">
-        <v>116.7076701762273</v>
+        <v>116.7076701762272</v>
       </c>
       <c r="G43" t="n">
-        <v>83.41740235609599</v>
+        <v>83.41740235609595</v>
       </c>
       <c r="H43" t="n">
-        <v>59.67423794738851</v>
+        <v>59.67423794738849</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>125.1690289679759</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>158.7732167126193</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>259.3802961128789</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>407.1619995900189</v>
+        <v>436.2359017784499</v>
       </c>
       <c r="N43" t="n">
-        <v>658.5147954834788</v>
+        <v>658.5147954834785</v>
       </c>
       <c r="O43" t="n">
-        <v>756.9784419791685</v>
+        <v>756.9784419791681</v>
       </c>
       <c r="P43" t="n">
-        <v>952.8773798511658</v>
+        <v>952.8773798511655</v>
       </c>
       <c r="Q43" t="n">
         <v>1048.037385741506</v>
@@ -7594,25 +7594,25 @@
         <v>1034.145085167903</v>
       </c>
       <c r="S43" t="n">
-        <v>956.0648033836092</v>
+        <v>956.0648033836089</v>
       </c>
       <c r="T43" t="n">
-        <v>858.5153310113067</v>
+        <v>858.5153310113064</v>
       </c>
       <c r="U43" t="n">
-        <v>706.9545723124253</v>
+        <v>706.9545723124251</v>
       </c>
       <c r="V43" t="n">
-        <v>581.8487486828666</v>
+        <v>581.8487486828664</v>
       </c>
       <c r="W43" t="n">
-        <v>431.3218280122844</v>
+        <v>431.3218280122842</v>
       </c>
       <c r="X43" t="n">
-        <v>335.6988447196789</v>
+        <v>335.6988447196787</v>
       </c>
       <c r="Y43" t="n">
-        <v>249.2931667239747</v>
+        <v>249.2931667239745</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1352.751890871496</v>
+        <v>1104.466567008651</v>
       </c>
       <c r="C44" t="n">
-        <v>1106.447613016322</v>
+        <v>858.1622891534766</v>
       </c>
       <c r="D44" t="n">
-        <v>869.2531290555644</v>
+        <v>620.967805192719</v>
       </c>
       <c r="E44" t="n">
-        <v>610.0968899736899</v>
+        <v>526.8141778305687</v>
       </c>
       <c r="F44" t="n">
-        <v>331.575180095879</v>
+        <v>248.2924679527577</v>
       </c>
       <c r="G44" t="n">
-        <v>51.10067436208574</v>
+        <v>248.2924679527577</v>
       </c>
       <c r="H44" t="n">
         <v>51.10067436208574</v>
@@ -7646,52 +7646,52 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>169.0523509867513</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>409.1927230315341</v>
       </c>
       <c r="L44" t="n">
-        <v>844.05541790848</v>
+        <v>890.0085502603399</v>
       </c>
       <c r="M44" t="n">
-        <v>1370.225038305427</v>
+        <v>1416.178170657287</v>
       </c>
       <c r="N44" t="n">
-        <v>1748.556396993143</v>
+        <v>1794.509529345003</v>
       </c>
       <c r="O44" t="n">
-        <v>2053.560981465977</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P44" t="n">
-        <v>2283.575140732745</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2510.937848563141</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2555.033718104287</v>
+        <v>2503.43422354666</v>
       </c>
       <c r="T44" t="n">
-        <v>2555.033718104287</v>
+        <v>2414.70475808969</v>
       </c>
       <c r="U44" t="n">
-        <v>2435.7778626303</v>
+        <v>2295.448902615703</v>
       </c>
       <c r="V44" t="n">
-        <v>2234.42806933826</v>
+        <v>2094.099109323663</v>
       </c>
       <c r="W44" t="n">
-        <v>2115.478983856127</v>
+        <v>1867.193659993282</v>
       </c>
       <c r="X44" t="n">
-        <v>1869.078324189639</v>
+        <v>1620.793000326794</v>
       </c>
       <c r="Y44" t="n">
-        <v>1611.165949577496</v>
+        <v>1362.880625714651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.367278851613</v>
+        <v>201.3672788516132</v>
       </c>
       <c r="C46" t="n">
-        <v>167.380790125312</v>
+        <v>167.3807901253122</v>
       </c>
       <c r="D46" t="n">
-        <v>149.9383777650935</v>
+        <v>149.9383777650937</v>
       </c>
       <c r="E46" t="n">
-        <v>133.5588443384312</v>
+        <v>133.5588443384313</v>
       </c>
       <c r="F46" t="n">
         <v>116.7076701762271</v>
       </c>
       <c r="G46" t="n">
-        <v>83.41740235609583</v>
+        <v>83.41740235609589</v>
       </c>
       <c r="H46" t="n">
-        <v>59.67423794738843</v>
+        <v>59.67423794738846</v>
       </c>
       <c r="I46" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>125.169028967976</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>158.7732167126194</v>
+        <v>217.6353162505887</v>
       </c>
       <c r="L46" t="n">
-        <v>392.3107502567385</v>
+        <v>422.0989476062758</v>
       </c>
       <c r="M46" t="n">
-        <v>540.0924537338771</v>
+        <v>673.0229078777371</v>
       </c>
       <c r="N46" t="n">
-        <v>658.5147954834774</v>
+        <v>791.4452496273375</v>
       </c>
       <c r="O46" t="n">
-        <v>889.9088961230267</v>
+        <v>889.9088961230271</v>
       </c>
       <c r="P46" t="n">
-        <v>952.8773798511645</v>
+        <v>952.877379851165</v>
       </c>
       <c r="Q46" t="n">
         <v>1048.037385741505</v>
@@ -7831,25 +7831,25 @@
         <v>1034.145085167902</v>
       </c>
       <c r="S46" t="n">
-        <v>956.0648033836081</v>
+        <v>956.0648033836085</v>
       </c>
       <c r="T46" t="n">
-        <v>858.5153310113058</v>
+        <v>858.5153310113061</v>
       </c>
       <c r="U46" t="n">
-        <v>706.9545723124244</v>
+        <v>706.9545723124247</v>
       </c>
       <c r="V46" t="n">
-        <v>581.8487486828658</v>
+        <v>581.848748682866</v>
       </c>
       <c r="W46" t="n">
-        <v>431.3218280122836</v>
+        <v>431.3218280122838</v>
       </c>
       <c r="X46" t="n">
-        <v>335.6988447196782</v>
+        <v>335.6988447196784</v>
       </c>
       <c r="Y46" t="n">
-        <v>249.293166723974</v>
+        <v>249.2931667239742</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>336.5156709903621</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>426.7684258927663</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8061,22 +8061,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>466.1431514615217</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6565199361233</v>
+        <v>600.9852732216719</v>
       </c>
       <c r="N3" t="n">
-        <v>592.2165117277405</v>
+        <v>592.2165117277403</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8222,7 +8222,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>426.7684258927663</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8234,7 +8234,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>191.1361225057237</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8298,10 +8298,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>396.1176730612053</v>
+        <v>396.117673061205</v>
       </c>
       <c r="M6" t="n">
-        <v>600.9852732216721</v>
+        <v>600.9852732216719</v>
       </c>
       <c r="N6" t="n">
         <v>106.7151410677083</v>
@@ -8532,13 +8532,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8778,13 +8778,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319179</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9006,7 +9006,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163523</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9246,13 +9246,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>482.092448894497</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,7 +9486,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>605.416582875</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10914,7 +10914,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>512.0210150597476</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11151,7 +11151,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>512.021015059748</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>216.4962840522552</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>275.9078171911227</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747227</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721452</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>195.3912000668551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>203.3607040808148</v>
       </c>
     </row>
     <row r="15">
@@ -25637,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>163.3525856025274</v>
       </c>
       <c r="G41" t="n">
-        <v>184.0333789452839</v>
+        <v>277.6697606764553</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.08349961205107</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>87.84217080240043</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>118.0632969192474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>163.3525856025265</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>277.6697606764553</v>
       </c>
       <c r="H44" t="n">
-        <v>195.2198756547652</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>36.81584079939336</v>
+        <v>36.81584079939338</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.08349961205099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>87.84217080240035</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>106.8768002097648</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>540206.0457041549</v>
+        <v>540206.045704155</v>
       </c>
     </row>
     <row r="6">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>558870.9705580452</v>
+        <v>558870.9705580451</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>767624.0604941822</v>
+        <v>767624.0604941824</v>
       </c>
       <c r="C2" t="n">
         <v>767624.0604941822</v>
@@ -26320,13 +26320,13 @@
         <v>767624.0604941823</v>
       </c>
       <c r="E2" t="n">
-        <v>704701.5743308897</v>
+        <v>704701.5743308901</v>
       </c>
       <c r="F2" t="n">
-        <v>704701.5743308901</v>
+        <v>704701.57433089</v>
       </c>
       <c r="G2" t="n">
-        <v>767624.0604941807</v>
+        <v>767624.0604941804</v>
       </c>
       <c r="H2" t="n">
         <v>767624.0604941808</v>
@@ -26335,25 +26335,25 @@
         <v>767624.0604941807</v>
       </c>
       <c r="J2" t="n">
-        <v>767624.0604941819</v>
+        <v>767624.060494182</v>
       </c>
       <c r="K2" t="n">
         <v>767624.0604941816</v>
       </c>
       <c r="L2" t="n">
-        <v>767624.0604941819</v>
+        <v>767624.0604941818</v>
       </c>
       <c r="M2" t="n">
         <v>767624.0604941805</v>
       </c>
       <c r="N2" t="n">
-        <v>767624.0604941805</v>
+        <v>767624.0604941809</v>
       </c>
       <c r="O2" t="n">
+        <v>729588.1408027444</v>
+      </c>
+      <c r="P2" t="n">
         <v>729588.1408027443</v>
-      </c>
-      <c r="P2" t="n">
-        <v>729588.1408027444</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162702.675839702</v>
+        <v>162702.6758397019</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12363.64264081816</v>
+        <v>12363.6426408182</v>
       </c>
       <c r="E3" t="n">
         <v>124619.3675503042</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>42159.11970739859</v>
+        <v>42159.11970739857</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>226085.7124438782</v>
+        <v>226085.7124438781</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>50397.14339869036</v>
+        <v>50397.14339869047</v>
       </c>
       <c r="M3" t="n">
-        <v>23532.87076561668</v>
+        <v>23532.87076561659</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33785.73726635003</v>
+        <v>33785.73726635001</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>207225.7233851205</v>
       </c>
       <c r="D4" t="n">
-        <v>196979.4332140583</v>
+        <v>196979.4332140584</v>
       </c>
       <c r="E4" t="n">
-        <v>151624.4080129268</v>
+        <v>151624.4080129267</v>
       </c>
       <c r="F4" t="n">
         <v>151624.4080129267</v>
@@ -26436,7 +26436,7 @@
         <v>187302.9854962236</v>
       </c>
       <c r="I4" t="n">
-        <v>187302.9854962235</v>
+        <v>187302.9854962236</v>
       </c>
       <c r="J4" t="n">
         <v>188087.4764890356</v>
@@ -26445,13 +26445,13 @@
         <v>188087.4764890356</v>
       </c>
       <c r="L4" t="n">
-        <v>187874.2937564695</v>
+        <v>187874.2937564696</v>
       </c>
       <c r="M4" t="n">
         <v>187302.9854962236</v>
       </c>
       <c r="N4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
       <c r="O4" t="n">
         <v>165723.8372594524</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63146.08333612995</v>
+        <v>63146.08333612994</v>
       </c>
       <c r="C5" t="n">
-        <v>63146.08333612995</v>
+        <v>63146.08333612994</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26479,7 +26479,7 @@
         <v>48372.47309929476</v>
       </c>
       <c r="F5" t="n">
-        <v>48372.47309929476</v>
+        <v>48372.47309929475</v>
       </c>
       <c r="G5" t="n">
         <v>52802.81689264637</v>
@@ -26491,22 +26491,22 @@
         <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
-        <v>58740.8832710806</v>
+        <v>58740.88327108059</v>
       </c>
       <c r="K5" t="n">
-        <v>58740.8832710806</v>
+        <v>58740.88327108059</v>
       </c>
       <c r="L5" t="n">
         <v>57186.63498742816</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>50124.7249893469</v>
+        <v>50124.72498934691</v>
       </c>
       <c r="P5" t="n">
         <v>50124.72498934691</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>334549.5779332299</v>
+        <v>334549.57793323</v>
       </c>
       <c r="C6" t="n">
         <v>497252.2537729317</v>
       </c>
       <c r="D6" t="n">
-        <v>492714.9500023944</v>
+        <v>492714.9500023943</v>
       </c>
       <c r="E6" t="n">
-        <v>380085.3256683641</v>
+        <v>379928.0194529562</v>
       </c>
       <c r="F6" t="n">
-        <v>504704.6932186686</v>
+        <v>504547.3870032603</v>
       </c>
       <c r="G6" t="n">
-        <v>485359.1383979121</v>
+        <v>485359.1383979119</v>
       </c>
       <c r="H6" t="n">
         <v>527518.2581053108</v>
@@ -26543,25 +26543,25 @@
         <v>527518.2581053107</v>
       </c>
       <c r="J6" t="n">
-        <v>294709.9882901875</v>
+        <v>294709.9882901878</v>
       </c>
       <c r="K6" t="n">
-        <v>520795.7007340654</v>
+        <v>520795.7007340655</v>
       </c>
       <c r="L6" t="n">
-        <v>472165.9883515939</v>
+        <v>472165.9883515937</v>
       </c>
       <c r="M6" t="n">
         <v>503985.387339694</v>
       </c>
       <c r="N6" t="n">
-        <v>527518.2581053106</v>
+        <v>527518.258105311</v>
       </c>
       <c r="O6" t="n">
-        <v>479953.841287595</v>
+        <v>479858.7514883665</v>
       </c>
       <c r="P6" t="n">
-        <v>513739.5785539451</v>
+        <v>513644.4887547164</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="K2" t="n">
         <v>126.7869503557441</v>
       </c>
       <c r="L2" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.5013706600321</v>
+        <v>485.501370660032</v>
       </c>
       <c r="C4" t="n">
-        <v>485.5013706600321</v>
+        <v>485.501370660032</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26799,7 +26799,7 @@
         <v>638.7584295260717</v>
       </c>
       <c r="F4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="G4" t="n">
         <v>638.7584295260717</v>
@@ -26808,25 +26808,25 @@
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="J4" t="n">
+        <v>790.8228806188082</v>
+      </c>
+      <c r="K4" t="n">
+        <v>790.8228806188083</v>
+      </c>
+      <c r="L4" t="n">
+        <v>751.0210500138501</v>
+      </c>
+      <c r="M4" t="n">
         <v>638.7584295260716</v>
       </c>
-      <c r="J4" t="n">
-        <v>790.8228806188084</v>
-      </c>
-      <c r="K4" t="n">
-        <v>790.8228806188084</v>
-      </c>
-      <c r="L4" t="n">
-        <v>751.0210500138503</v>
-      </c>
-      <c r="M4" t="n">
-        <v>638.7584295260718</v>
-      </c>
       <c r="N4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.69889963424824</v>
+        <v>52.69889963424821</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.08805072149596</v>
+        <v>74.08805072149592</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.99642924836294</v>
+        <v>62.99642924836309</v>
       </c>
       <c r="M2" t="n">
-        <v>29.04458517259812</v>
+        <v>29.04458517259798</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.23217158293754</v>
+        <v>42.23217158293751</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.5013706600321</v>
+        <v>485.501370660032</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.80183060495818</v>
+        <v>39.8018306049583</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>637.5658217527689</v>
+        <v>637.5658217527684</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.192607773302939</v>
+        <v>1.192607773303052</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.69889963424824</v>
+        <v>52.69889963424821</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>74.08805072149596</v>
+        <v>74.08805072149592</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>485.5013706600321</v>
+        <v>485.501370660032</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>39.80183060495818</v>
+        <v>39.8018306049583</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27385,19 +27385,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>348.9260991630013</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>81.57534028588842</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>89.33300591668754</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>47.64793159192854</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27585,16 +27585,16 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>229.3283696525923</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>210.0538709704636</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>325.5595238465583</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,22 +27667,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>1.048958987325648</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>103.9912698796874</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>165.2740621572782</v>
       </c>
     </row>
     <row r="7">
@@ -27819,22 +27819,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>135.4299118985452</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>227.2803006898289</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.3384771851629</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27913,10 +27913,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>237.1500269824789</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27944,10 +27944,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>49.32288970647717</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27986,13 +27986,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>111.6678079705924</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>93.47784511364529</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>189.0241322230513</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28111,22 +28111,22 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>85.24810502388482</v>
       </c>
       <c r="O11" t="n">
-        <v>108.9463668929882</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28354,13 +28354,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L14" t="n">
-        <v>85.24810502388482</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -28369,7 +28369,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.4301655082087</v>
+        <v>85.24810502388468</v>
       </c>
       <c r="R14" t="n">
         <v>113.4301655082087</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28585,31 +28585,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>116.9787331327011</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>40.58157162934918</v>
       </c>
       <c r="Q17" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="R17" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>14.5654912855037</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28725,22 +28725,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D19" t="n">
+        <v>151.5411742405149</v>
+      </c>
+      <c r="E19" t="n">
+        <v>150.4889240962943</v>
+      </c>
+      <c r="F19" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="E19" t="n">
-        <v>164.4841484536139</v>
-      </c>
-      <c r="F19" t="n">
-        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>147.8207661206955</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28822,31 +28822,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
+        <v>116.9787331327011</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K20" t="n">
-        <v>40.58157162934944</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187378</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
@@ -29059,13 +29059,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
+        <v>116.9787331327013</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29077,13 +29077,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="P23" t="n">
-        <v>40.58157162934918</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.56549128550325</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29202,10 +29202,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F25" t="n">
-        <v>165.9232676913869</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>166.1290651424569</v>
@@ -29214,7 +29214,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="I25" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
         <v>59.456666199969</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>19.10911825439662</v>
       </c>
       <c r="Q25" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S25" t="n">
         <v>166.1290651424569</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="C26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="D26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="E26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="F26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="G26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="H26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="I26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="J26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="K26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="L26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="M26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="N26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="O26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="P26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="Q26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="R26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="S26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="T26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="U26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="V26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="W26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="X26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="Y26" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
     </row>
     <row r="27">
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550334</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="C28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="D28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="E28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="F28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="G28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="H28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="I28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="J28" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
-        <v>122.7891495142816</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="N28" t="n">
-        <v>126.7869503557442</v>
+        <v>84.63718158143446</v>
       </c>
       <c r="O28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="P28" t="n">
-        <v>126.7869503557442</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.7869503557442</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="S28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="T28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="U28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="V28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="W28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="X28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
     </row>
     <row r="29">
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550336</v>
       </c>
       <c r="I30" t="n">
-        <v>14.56549128550336</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29694,19 +29694,19 @@
         <v>126.7869503557441</v>
       </c>
       <c r="K31" t="n">
-        <v>126.7869503557441</v>
+        <v>55.45886535850812</v>
       </c>
       <c r="L31" t="n">
         <v>126.7869503557441</v>
       </c>
       <c r="M31" t="n">
-        <v>55.45886535850741</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="P31" t="n">
         <v>126.7869503557441</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="C32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="D32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="E32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="F32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="G32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="H32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="I32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>137.084479969859</v>
       </c>
       <c r="K32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="L32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="M32" t="n">
-        <v>137.0844799698588</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="O32" t="n">
-        <v>137.0844799698588</v>
+        <v>23.89202576476964</v>
       </c>
       <c r="P32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="Q32" t="n">
-        <v>23.89202576477139</v>
+        <v>137.084479969859</v>
       </c>
       <c r="R32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="S32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="T32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="U32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="V32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="W32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="X32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
     </row>
     <row r="33">
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>14.56549128550363</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.56549128550356</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,37 +29904,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="C34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="D34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="E34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="F34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="G34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="H34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="I34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="J34" t="n">
-        <v>137.0844799698588</v>
+        <v>110.0343984032068</v>
       </c>
       <c r="K34" t="n">
-        <v>137.0844799698588</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>137.084479969859</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.0343984032097</v>
+        <v>137.084479969859</v>
       </c>
       <c r="R34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="S34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="T34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="U34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="V34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="W34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="X34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.0844799698588</v>
+        <v>137.084479969859</v>
       </c>
     </row>
     <row r="35">
@@ -30013,7 +30013,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30025,10 +30025,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>40.58157162934964</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>166.1290651424569</v>
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30147,19 +30147,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>159.0632869323909</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30247,28 +30247,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>40.5815716293493</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>116.9787331327003</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.56549128550415</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>45.56176619902594</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.73508319210941</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30481,31 +30481,31 @@
         <v>134.2731860038985</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>46.41730540591914</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>134.2731860038985</v>
       </c>
-      <c r="K41" t="n">
-        <v>1.876023041125876</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>134.2731860038985</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>134.2731860038985</v>
       </c>
       <c r="R41" t="n">
-        <v>134.2731860038985</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>134.2731860038985</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30639,19 +30639,19 @@
         <v>134.2731860038985</v>
       </c>
       <c r="J43" t="n">
+        <v>59.456666199969</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>134.2731860038985</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>30.08908823185692</v>
-      </c>
       <c r="N43" t="n">
-        <v>134.2731860038985</v>
+        <v>104.905608035786</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30718,7 +30718,7 @@
         <v>134.2731860038986</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>46.41730540591915</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30733,16 +30733,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>134.2731860038986</v>
       </c>
       <c r="P44" t="n">
-        <v>1.876023041125876</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>134.2731860038986</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>134.2731860038986</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>14.56549128550398</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30876,22 +30876,22 @@
         <v>134.2731860038986</v>
       </c>
       <c r="J46" t="n">
+        <v>59.456666199969</v>
+      </c>
+      <c r="K46" t="n">
         <v>134.2731860038986</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
+        <v>104.9056080357855</v>
+      </c>
+      <c r="M46" t="n">
         <v>134.2731860038986</v>
       </c>
-      <c r="M46" t="n">
-        <v>30.08908823185536</v>
-      </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>134.2731860038986</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>157.6926670163153</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>239.6121113956073</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34781,22 +34781,22 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>353.5677178903739</v>
       </c>
       <c r="M3" t="n">
-        <v>219.1726173744834</v>
+        <v>485.501370660032</v>
       </c>
       <c r="N3" t="n">
-        <v>485.5013706600321</v>
+        <v>485.501370660032</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34942,7 +34942,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>239.6121113956073</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -34954,7 +34954,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.5127494827335</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>283.5422394900576</v>
+        <v>283.5422394900572</v>
       </c>
       <c r="M6" t="n">
-        <v>485.5013706600321</v>
+        <v>485.501370660032</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M11" t="n">
         <v>510.6414445517319</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>467.400992587234</v>
       </c>
       <c r="O11" t="n">
-        <v>417.0318057544366</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
         <v>230.4615115717709</v>
@@ -35431,7 +35431,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q12" t="n">
         <v>159.3652826117113</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35586,7 +35586,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,13 +35650,13 @@
         <v>355.9961978766761</v>
       </c>
       <c r="L14" t="n">
-        <v>436.6474717763558</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>382.1528875633492</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O14" t="n">
         <v>308.0854388614484</v>
@@ -35665,10 +35665,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>208.8162803430946</v>
+        <v>180.6342198587705</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910353</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35811,19 +35811,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M16" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N16" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O16" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P16" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35890,7 +35890,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762243</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35899,13 +35899,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>271.0430832011201</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q17" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R17" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>369.5170153233492</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -36021,22 +36021,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>13.99522435731956</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.05975216734729</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284644</v>
       </c>
       <c r="K20" t="n">
-        <v>283.1476039978169</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36130,19 +36130,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q20" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36206,7 +36206,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133602</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36264,7 +36264,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
-        <v>165.8709765548032</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
         <v>119.6185270197983</v>
@@ -36297,7 +36297,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>45.56176619902593</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284646</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36373,13 +36373,13 @@
         <v>474.2145040039054</v>
       </c>
       <c r="P23" t="n">
-        <v>271.0430832011201</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36498,10 +36498,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F25" t="n">
-        <v>14.96741926690627</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -36510,7 +36510,7 @@
         <v>8.350146373938031</v>
       </c>
       <c r="I25" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -36531,13 +36531,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>63.604529018321</v>
+        <v>82.71364727271762</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>199.5127526515074</v>
       </c>
       <c r="K26" t="n">
-        <v>369.3529827242116</v>
+        <v>369.3529827242115</v>
       </c>
       <c r="L26" t="n">
         <v>478.1863171082151</v>
@@ -36604,7 +36604,7 @@
         <v>523.9982293992673</v>
       </c>
       <c r="N26" t="n">
-        <v>508.9398379190934</v>
+        <v>508.9398379190933</v>
       </c>
       <c r="O26" t="n">
         <v>434.8723892171926</v>
@@ -36616,7 +36616,7 @@
         <v>222.17306519063</v>
       </c>
       <c r="R26" t="n">
-        <v>37.05504671663897</v>
+        <v>37.05504671663894</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>156.7327734987699</v>
+        <v>160.7305743402324</v>
       </c>
       <c r="L28" t="n">
-        <v>101.6233125255146</v>
+        <v>228.4102628812588</v>
       </c>
       <c r="M28" t="n">
-        <v>119.1853597248502</v>
+        <v>245.9723100805944</v>
       </c>
       <c r="N28" t="n">
-        <v>246.4054773755425</v>
+        <v>204.2557086012328</v>
       </c>
       <c r="O28" t="n">
         <v>226.2451791392691</v>
       </c>
       <c r="P28" t="n">
-        <v>190.3914793740652</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.6349824228963</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>369.3529827242115</v>
       </c>
       <c r="L29" t="n">
-        <v>478.1863171082151</v>
+        <v>478.186317108215</v>
       </c>
       <c r="M29" t="n">
         <v>523.9982293992673</v>
@@ -36844,16 +36844,16 @@
         <v>508.9398379190933</v>
       </c>
       <c r="O29" t="n">
-        <v>434.8723892171926</v>
+        <v>434.8723892171925</v>
       </c>
       <c r="P29" t="n">
-        <v>357.2484619275151</v>
+        <v>357.248461927515</v>
       </c>
       <c r="Q29" t="n">
-        <v>222.17306519063</v>
+        <v>222.1730651906299</v>
       </c>
       <c r="R29" t="n">
-        <v>37.05504671663893</v>
+        <v>37.0550467166389</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.3302841557751</v>
+        <v>67.33028415577508</v>
       </c>
       <c r="K31" t="n">
-        <v>160.7305743402324</v>
+        <v>89.40248934299642</v>
       </c>
       <c r="L31" t="n">
         <v>228.4102628812587</v>
       </c>
       <c r="M31" t="n">
-        <v>174.6442250833576</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N31" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
-        <v>99.45822878352493</v>
+        <v>226.245179139269</v>
       </c>
       <c r="P31" t="n">
         <v>190.3914793740651</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.63498242289626</v>
+        <v>88.63498242289623</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>209.8102822656222</v>
       </c>
       <c r="K32" t="n">
-        <v>379.6505123383263</v>
+        <v>379.6505123383264</v>
       </c>
       <c r="L32" t="n">
-        <v>488.4838467223298</v>
+        <v>488.4838467223299</v>
       </c>
       <c r="M32" t="n">
-        <v>534.2957590133819</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>519.237367533208</v>
+        <v>519.2373675332082</v>
       </c>
       <c r="O32" t="n">
-        <v>445.1699188313073</v>
+        <v>331.9774646262181</v>
       </c>
       <c r="P32" t="n">
-        <v>367.5459915416297</v>
+        <v>367.5459915416299</v>
       </c>
       <c r="Q32" t="n">
-        <v>119.2781405996572</v>
+        <v>232.4705948047448</v>
       </c>
       <c r="R32" t="n">
-        <v>47.35257633075364</v>
+        <v>47.35257633075378</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.62781376988983</v>
+        <v>50.57773220323783</v>
       </c>
       <c r="K34" t="n">
-        <v>171.0281039543471</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>238.7077924953735</v>
+        <v>238.7077924953736</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
@@ -37242,10 +37242,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>200.68900898818</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.8824304703619</v>
+        <v>98.93251203701111</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37321,10 +37321,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>271.0430832011206</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>76.39716150335175</v>
@@ -37443,19 +37443,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>8.57436283609659</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37543,10 +37543,10 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>391.9809383818202</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
@@ -37555,16 +37555,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675862</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
         <v>231.8086389496855</v>
@@ -37634,7 +37634,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
-        <v>396.1615664486372</v>
+        <v>396.1615664486365</v>
       </c>
       <c r="P39" t="n">
         <v>305.147393207775</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37716,13 +37716,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>109.1662952173469</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.58311525926155</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>206.9989882996618</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>244.4420554095933</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>485.6725527563694</v>
+        <v>397.8166721583901</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>516.4260735672477</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>364.7346975756694</v>
       </c>
       <c r="Q41" t="n">
         <v>229.6593008387844</v>
       </c>
       <c r="R41" t="n">
-        <v>44.54128236479332</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P42" t="n">
         <v>305.147393207775</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.81651980392951</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
@@ -37944,10 +37944,10 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>149.2744479567071</v>
+        <v>253.4585457287488</v>
       </c>
       <c r="N43" t="n">
-        <v>253.8917130236969</v>
+        <v>224.5241350555844</v>
       </c>
       <c r="O43" t="n">
         <v>99.45822878352493</v>
@@ -37956,7 +37956,7 @@
         <v>197.8777150222195</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.12121807105065</v>
+        <v>96.12121807105068</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>119.1431077016824</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>485.6725527563696</v>
+        <v>485.6725527563695</v>
       </c>
       <c r="M44" t="n">
         <v>531.4844650474217</v>
@@ -38029,16 +38029,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>442.358624865347</v>
       </c>
       <c r="P44" t="n">
-        <v>232.3375346128968</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>229.6593008387844</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>44.5412823647934</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>74.81651980392959</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.9436239844883</v>
+        <v>168.2168099883868</v>
       </c>
       <c r="L46" t="n">
-        <v>235.8964985294132</v>
+        <v>206.5289205613001</v>
       </c>
       <c r="M46" t="n">
-        <v>149.2744479567056</v>
+        <v>253.4585457287488</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>233.7314147874235</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.12121807105073</v>
+        <v>96.12121807105071</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
